--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H2">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>2.958591327903667</v>
+        <v>198.4738108738775</v>
       </c>
       <c r="R2">
-        <v>26.62732195113301</v>
+        <v>1786.264297864898</v>
       </c>
       <c r="S2">
-        <v>7.488592132236044E-05</v>
+        <v>0.001073092905657419</v>
       </c>
       <c r="T2">
-        <v>7.488592132236044E-05</v>
+        <v>0.001073092905657419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H3">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>3.490374721042667</v>
+        <v>66.57379678293955</v>
       </c>
       <c r="R3">
-        <v>31.413372489384</v>
+        <v>599.164171046456</v>
       </c>
       <c r="S3">
-        <v>8.834607344393176E-05</v>
+        <v>0.0003599460740734627</v>
       </c>
       <c r="T3">
-        <v>8.834607344393176E-05</v>
+        <v>0.0003599460740734627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H4">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>0.4467456752050001</v>
+        <v>11.41313609467655</v>
       </c>
       <c r="R4">
-        <v>4.020711076845</v>
+        <v>102.718224852089</v>
       </c>
       <c r="S4">
-        <v>1.130773323404933E-05</v>
+        <v>6.170766470687035E-05</v>
       </c>
       <c r="T4">
-        <v>1.130773323404933E-05</v>
+        <v>6.170766470687035E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H5">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>0.3705961602213334</v>
+        <v>3.602382362542</v>
       </c>
       <c r="R5">
-        <v>3.335365441992</v>
+        <v>32.421441262878</v>
       </c>
       <c r="S5">
-        <v>9.380286704337724E-06</v>
+        <v>1.947708334761472E-05</v>
       </c>
       <c r="T5">
-        <v>9.380286704337724E-06</v>
+        <v>1.947708334761472E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H6">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>15.967070950798</v>
+        <v>218.2799374199768</v>
       </c>
       <c r="R6">
-        <v>143.703638557182</v>
+        <v>1964.519436779791</v>
       </c>
       <c r="S6">
-        <v>0.0004041480172313068</v>
+        <v>0.001180179144348519</v>
       </c>
       <c r="T6">
-        <v>0.0004041480172313068</v>
+        <v>0.001180179144348519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H7">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>0.6654010296856668</v>
+        <v>5.175004973005889</v>
       </c>
       <c r="R7">
-        <v>5.988609267171</v>
+        <v>46.57504475705299</v>
       </c>
       <c r="S7">
-        <v>1.684219401540844E-05</v>
+        <v>2.797981808694834E-05</v>
       </c>
       <c r="T7">
-        <v>1.684219401540845E-05</v>
+        <v>2.797981808694834E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J8">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>47.48251359705166</v>
+        <v>167.0016102132566</v>
       </c>
       <c r="R8">
-        <v>427.342622373465</v>
+        <v>1503.01449191931</v>
       </c>
       <c r="S8">
-        <v>0.001201846211026445</v>
+        <v>0.0009029314364658984</v>
       </c>
       <c r="T8">
-        <v>0.001201846211026445</v>
+        <v>0.0009029314364658986</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J9">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>56.01711990014666</v>
@@ -1013,10 +1013,10 @@
         <v>504.15407910132</v>
       </c>
       <c r="S9">
-        <v>0.001417868562644621</v>
+        <v>0.0003028690470321397</v>
       </c>
       <c r="T9">
-        <v>0.001417868562644622</v>
+        <v>0.0003028690470321397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J10">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>7.169833629025</v>
+        <v>9.603343116161664</v>
       </c>
       <c r="R10">
-        <v>64.52850266122499</v>
+        <v>86.43008804545499</v>
       </c>
       <c r="S10">
-        <v>0.0001814781216904393</v>
+        <v>5.192261549860452E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001814781216904393</v>
+        <v>5.192261549860453E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J11">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>5.947707968573333</v>
+        <v>3.031148807489999</v>
       </c>
       <c r="R11">
-        <v>53.52937171716</v>
+        <v>27.28033926741</v>
       </c>
       <c r="S11">
-        <v>0.0001505444793210255</v>
+        <v>1.638858178309698E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001505444793210255</v>
+        <v>1.638858178309698E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J12">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>256.25596086079</v>
+        <v>183.6670584692383</v>
       </c>
       <c r="R12">
-        <v>2306.30364774711</v>
+        <v>1653.003526223145</v>
       </c>
       <c r="S12">
-        <v>0.006486182644564226</v>
+        <v>0.0009930368978078941</v>
       </c>
       <c r="T12">
-        <v>0.006486182644564228</v>
+        <v>0.0009930368978078943</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J13">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>10.67903942716167</v>
+        <v>4.354398998781666</v>
       </c>
       <c r="R13">
-        <v>96.11135484445499</v>
+        <v>39.189590989035</v>
       </c>
       <c r="S13">
-        <v>0.0002703008349948264</v>
+        <v>2.354302894382212E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002703008349948265</v>
+        <v>2.354302894382212E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H14">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I14">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J14">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>2022.876026982452</v>
+        <v>8933.320738794569</v>
       </c>
       <c r="R14">
-        <v>18205.88424284207</v>
+        <v>80399.88664915113</v>
       </c>
       <c r="S14">
-        <v>0.05120170993972082</v>
+        <v>0.04829999014255065</v>
       </c>
       <c r="T14">
-        <v>0.05120170993972083</v>
+        <v>0.04829999014255065</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H15">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I15">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J15">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>2386.471994895495</v>
+        <v>2996.49146072604</v>
       </c>
       <c r="R15">
-        <v>21478.24795405946</v>
+        <v>26968.42314653436</v>
       </c>
       <c r="S15">
-        <v>0.06040481237210589</v>
+        <v>0.01620119911141065</v>
       </c>
       <c r="T15">
-        <v>0.0604048123721059</v>
+        <v>0.01620119911141065</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H16">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I16">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J16">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>305.4531756403866</v>
+        <v>513.7060900898849</v>
       </c>
       <c r="R16">
-        <v>2749.07858076348</v>
+        <v>4623.354810808964</v>
       </c>
       <c r="S16">
-        <v>0.007731430246190437</v>
+        <v>0.002777466500196177</v>
       </c>
       <c r="T16">
-        <v>0.007731430246190438</v>
+        <v>0.002777466500196177</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H17">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I17">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J17">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>253.3875094992142</v>
+        <v>162.14349352527</v>
       </c>
       <c r="R17">
-        <v>2280.487585492928</v>
+        <v>1459.29144172743</v>
       </c>
       <c r="S17">
-        <v>0.006413578286891016</v>
+        <v>0.0008766649455380489</v>
       </c>
       <c r="T17">
-        <v>0.006413578286891017</v>
+        <v>0.000876664945538049</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H18">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I18">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J18">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>10917.1566694151</v>
+        <v>9824.795942754314</v>
       </c>
       <c r="R18">
-        <v>98254.41002473587</v>
+        <v>88423.16348478883</v>
       </c>
       <c r="S18">
-        <v>0.2763279023024031</v>
+        <v>0.05311994957561966</v>
       </c>
       <c r="T18">
-        <v>0.2763279023024032</v>
+        <v>0.05311994957561967</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H19">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I19">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J19">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>454.9542813114071</v>
+        <v>232.927352204145</v>
       </c>
       <c r="R19">
-        <v>4094.588531802664</v>
+        <v>2096.346169837305</v>
       </c>
       <c r="S19">
-        <v>0.01151550408271405</v>
+        <v>0.001259373657830706</v>
       </c>
       <c r="T19">
-        <v>0.01151550408271406</v>
+        <v>0.001259373657830706</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H20">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>117.4157528506983</v>
+        <v>1105.407930262291</v>
       </c>
       <c r="R20">
-        <v>1056.741775656285</v>
+        <v>9948.671372360617</v>
       </c>
       <c r="S20">
-        <v>0.002971950450558953</v>
+        <v>0.005976634411356686</v>
       </c>
       <c r="T20">
-        <v>0.002971950450558954</v>
+        <v>0.005976634411356687</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H21">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>138.5203058418533</v>
+        <v>370.7854582300329</v>
       </c>
       <c r="R21">
-        <v>1246.68275257668</v>
+        <v>3337.069124070296</v>
       </c>
       <c r="S21">
-        <v>0.003506135040344474</v>
+        <v>0.002004734241740466</v>
       </c>
       <c r="T21">
-        <v>0.003506135040344474</v>
+        <v>0.002004734241740466</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H22">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>17.729714574725</v>
+        <v>63.56592384994988</v>
       </c>
       <c r="R22">
-        <v>159.567431172525</v>
+        <v>572.0933146495489</v>
       </c>
       <c r="S22">
-        <v>0.0004487628954322394</v>
+        <v>0.0003436833384949068</v>
       </c>
       <c r="T22">
-        <v>0.0004487628954322394</v>
+        <v>0.0003436833384949068</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H23">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>14.70761667742667</v>
+        <v>20.063614508422</v>
       </c>
       <c r="R23">
-        <v>132.36855009684</v>
+        <v>180.572530575798</v>
       </c>
       <c r="S23">
-        <v>0.0003722695375185902</v>
+        <v>0.0001084784047630066</v>
       </c>
       <c r="T23">
-        <v>0.0003722695375185902</v>
+        <v>0.0001084784047630066</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H24">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>633.67510031771</v>
+        <v>1215.718954449503</v>
       </c>
       <c r="R24">
-        <v>5703.075902859389</v>
+        <v>10941.47059004553</v>
       </c>
       <c r="S24">
-        <v>0.01603916811990196</v>
+        <v>0.006573055556040223</v>
       </c>
       <c r="T24">
-        <v>0.01603916811990196</v>
+        <v>0.006573055556040224</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H25">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>26.40735207708833</v>
+        <v>28.82239984771922</v>
       </c>
       <c r="R25">
-        <v>237.666168693795</v>
+        <v>259.401598629473</v>
       </c>
       <c r="S25">
-        <v>0.0006684055588636869</v>
+        <v>0.0001558347303577661</v>
       </c>
       <c r="T25">
-        <v>0.0006684055588636872</v>
+        <v>0.0001558347303577661</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H26">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>1764.838026854414</v>
+        <v>7604.796172746973</v>
       </c>
       <c r="R26">
-        <v>15883.54224168973</v>
+        <v>68443.16555472277</v>
       </c>
       <c r="S26">
-        <v>0.04467042148716551</v>
+        <v>0.04111702589885399</v>
       </c>
       <c r="T26">
-        <v>0.04467042148716552</v>
+        <v>0.04111702589885399</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H27">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>2082.053704940772</v>
+        <v>2550.866296923452</v>
       </c>
       <c r="R27">
-        <v>18738.48334446695</v>
+        <v>22957.79667231107</v>
       </c>
       <c r="S27">
-        <v>0.0526995764729695</v>
+        <v>0.01379182731694826</v>
       </c>
       <c r="T27">
-        <v>0.05269957647296951</v>
+        <v>0.01379182731694827</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H28">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>266.4895785026134</v>
+        <v>437.3099569645045</v>
       </c>
       <c r="R28">
-        <v>2398.40620652352</v>
+        <v>3935.789612680541</v>
       </c>
       <c r="S28">
-        <v>0.006745209255756152</v>
+        <v>0.002364413774924525</v>
       </c>
       <c r="T28">
-        <v>0.006745209255756153</v>
+        <v>0.002364413774924526</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H29">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>221.0654070389191</v>
+        <v>138.030219114598</v>
       </c>
       <c r="R29">
-        <v>1989.588663350272</v>
+        <v>1242.271972031382</v>
       </c>
       <c r="S29">
-        <v>0.005595462449469841</v>
+        <v>0.0007462911516942568</v>
       </c>
       <c r="T29">
-        <v>0.005595462449469842</v>
+        <v>0.0007462911516942569</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H30">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>9524.564520175702</v>
+        <v>8363.695065711909</v>
       </c>
       <c r="R30">
-        <v>85721.08068158131</v>
+        <v>75273.25559140719</v>
       </c>
       <c r="S30">
-        <v>0.2410795240831745</v>
+        <v>0.04522018195035662</v>
       </c>
       <c r="T30">
-        <v>0.2410795240831745</v>
+        <v>0.04522018195035663</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H31">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>396.9203280026596</v>
+        <v>198.2874105121619</v>
       </c>
       <c r="R31">
-        <v>3572.282952023936</v>
+        <v>1784.586694609457</v>
       </c>
       <c r="S31">
-        <v>0.01004658675691909</v>
+        <v>0.001072085090546255</v>
       </c>
       <c r="T31">
-        <v>0.0100465867569191</v>
+        <v>0.001072085090546255</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H32">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>935.3884423154701</v>
+        <v>54895.44905895576</v>
       </c>
       <c r="R32">
-        <v>8418.495980839232</v>
+        <v>494059.0415306019</v>
       </c>
       <c r="S32">
-        <v>0.02367593815219969</v>
+        <v>0.2968044835672419</v>
       </c>
       <c r="T32">
-        <v>0.02367593815219969</v>
+        <v>0.2968044835672419</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H33">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>1103.51711729201</v>
+        <v>18413.50480382265</v>
       </c>
       <c r="R33">
-        <v>9931.654055628089</v>
+        <v>165721.5432344038</v>
       </c>
       <c r="S33">
-        <v>0.02793150079364329</v>
+        <v>0.09955671877448469</v>
       </c>
       <c r="T33">
-        <v>0.02793150079364329</v>
+        <v>0.09955671877448469</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H34">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>141.2431440936017</v>
+        <v>3156.735028816378</v>
       </c>
       <c r="R34">
-        <v>1271.188296842415</v>
+        <v>28410.6152593474</v>
       </c>
       <c r="S34">
-        <v>0.003575053734579415</v>
+        <v>0.01706759168652095</v>
       </c>
       <c r="T34">
-        <v>0.003575053734579415</v>
+        <v>0.01706759168652095</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H35">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>117.1677080805716</v>
+        <v>996.375272904244</v>
       </c>
       <c r="R35">
-        <v>1054.509372725144</v>
+        <v>8967.377456138196</v>
       </c>
       <c r="S35">
-        <v>0.002965672104183451</v>
+        <v>0.005387125041930376</v>
       </c>
       <c r="T35">
-        <v>0.002965672104183451</v>
+        <v>0.005387125041930376</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H36">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>5048.150274810052</v>
+        <v>60373.5834590532</v>
       </c>
       <c r="R36">
-        <v>45433.35247329047</v>
+        <v>543362.2511314788</v>
       </c>
       <c r="S36">
-        <v>0.1277754655526344</v>
+        <v>0.3264232384805439</v>
       </c>
       <c r="T36">
-        <v>0.1277754655526344</v>
+        <v>0.3264232384805439</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H37">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>210.3732363448108</v>
+        <v>1431.343614679783</v>
       </c>
       <c r="R37">
-        <v>1893.359127103297</v>
+        <v>12882.09253211805</v>
       </c>
       <c r="S37">
-        <v>0.005324829244466978</v>
+        <v>0.007738878352302955</v>
       </c>
       <c r="T37">
-        <v>0.005324829244466978</v>
+        <v>0.007738878352302954</v>
       </c>
     </row>
   </sheetData>
